--- a/hardware/BOM.xlsx
+++ b/hardware/BOM.xlsx
@@ -1,31 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmsoffice365-my.sharepoint.com/personal/garwing_crystallinemirrors_com/Documents/CMS_GW_Cloud/_projects/201806_TeensyPulseGen/_opensource/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thorlabsinc-my.sharepoint.com/personal/garwing_thorlabs_com/Documents/_CMS/CMS_GW_Cloud/_projects/201806_TeensyPulseGen/_opensource/ddg/hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="8_{7EF43A4E-0C23-4180-B719-6781A21BC2DC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{FAE762C5-EA5D-4CB5-B66F-441090608803}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="114_{DB750584-B8C6-44E1-842D-675D192270FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{782E5DEF-8218-4130-884C-FF1910747589}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="780" windowWidth="19440" windowHeight="13095" xr2:uid="{2EB77234-2277-4512-A104-35AE28768D27}"/>
+    <workbookView xWindow="2745" yWindow="-13380" windowWidth="17280" windowHeight="8970" xr2:uid="{2EB77234-2277-4512-A104-35AE28768D27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>QTY</t>
   </si>
@@ -42,18 +50,9 @@
     <t>VENDOR</t>
   </si>
   <si>
-    <t>https://www.pjrc.com/store/teensy.html</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/analog-devices-inc/ADG436BN/ADG436BN-ND/622936</t>
-  </si>
-  <si>
     <t>ADG436BN SPDT</t>
   </si>
   <si>
-    <t>Teensy 2.0 Microcontroller</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/product-detail/en/analog-devices-inc/AD8251ARMZ/AD8251ARMZ-ND/1644799</t>
   </si>
   <si>
@@ -93,9 +92,6 @@
     <t>https://www.digikey.com/products/en?keywords=WM5514-ND</t>
   </si>
   <si>
-    <t>https://www.digikey.com/products/en?keywords=PA0027-ND</t>
-  </si>
-  <si>
     <t>Surface mount to DIP adapter</t>
   </si>
   <si>
@@ -117,9 +113,6 @@
     <t>4POS Female Header</t>
   </si>
   <si>
-    <t>https://www.digikey.com/product-detail/en/sullins-connector-solutions/PPTC041LFBN-RC/S7002-ND/810144</t>
-  </si>
-  <si>
     <t>7POS Female Header</t>
   </si>
   <si>
@@ -132,43 +125,109 @@
     <t>https://www.digikey.com/product-detail/en/sullins-connector-solutions/PPTC051LFBN-RC/S6103-ND/807239</t>
   </si>
   <si>
-    <t>2.2 uF cap</t>
-  </si>
-  <si>
-    <t>0.1 uF cap</t>
-  </si>
-  <si>
-    <t>330 Ohm resistor</t>
-  </si>
-  <si>
-    <t>3.3k resistor</t>
-  </si>
-  <si>
-    <t>4.7 uF cap</t>
-  </si>
-  <si>
-    <t>270k resistor</t>
-  </si>
-  <si>
-    <t>1M resistor</t>
-  </si>
-  <si>
-    <t>1 pF cap</t>
-  </si>
-  <si>
-    <t>10 pF cap</t>
-  </si>
-  <si>
-    <t>1 uF cap</t>
-  </si>
-  <si>
-    <t>50 Ohm resistor</t>
-  </si>
-  <si>
-    <t>4.7 nF cap</t>
-  </si>
-  <si>
-    <t>small signal diode</t>
+    <t>Teensy 2.0 Microcontroller with pins</t>
+  </si>
+  <si>
+    <t>https://www.pjrc.com/store/teensy_pins.html</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/analog-devices-inc/ADG436BNZ/ADG436BNZ-ND/820072</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/sullins-connector-solutions/PPPC041LFBN-RC/S7037-ND/810176</t>
+  </si>
+  <si>
+    <t>2.2 uF cap (tant C1, C3, C17)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/avx-corporation/TAP225K016CCS/478-8819-ND/1471492</t>
+  </si>
+  <si>
+    <t>0.1 uF cap (tant C2, C4, C5, C6, C7, C14)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/avx-corporation/TAP104K035SRW/478-11084-1-ND/7536240</t>
+  </si>
+  <si>
+    <t>330 Ohm resistor (0.25W R6, R7)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/stackpole-electronics-inc/CF14JT330R/CF14JT330RCT-ND/1830338</t>
+  </si>
+  <si>
+    <t>3.3k resistor (0.25W R8 R9)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/stackpole-electronics-inc/CF14JT3K30/CF14JT3K30CT-ND/1830362</t>
+  </si>
+  <si>
+    <t>4.7 uF cap (tant C15, C16)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/avx-corporation/TAP475K016SRW/478-7381-1-ND/3660572</t>
+  </si>
+  <si>
+    <t>270k resistor (R1, R2)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/stackpole-electronics-inc/CF14JT270K/CF14JT270KCT-ND/1830409</t>
+  </si>
+  <si>
+    <t>1M resistor (R3, R4)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/stackpole-electronics-inc/CF14JT1M00/CF14JT1M00CT-ND/1830423</t>
+  </si>
+  <si>
+    <t>1 pF cap (ceramic, C11, C12)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/tdk-corporation/FG28C0G1H010CNT06/445-173463-1-ND/5812068</t>
+  </si>
+  <si>
+    <t>10 pF cap (ceramic C10)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/vishay-bc-components/S100K25SL0N63L6R/1246PH-ND/2356783</t>
+  </si>
+  <si>
+    <t>1 uF cap (tant C8, C9)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/avx-corporation/TAP105K035CCS/478-4168-ND/1212723</t>
+  </si>
+  <si>
+    <t>50 Ohm resistor (R5)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/products/en/resistors/through-hole-resistors/53?k=&amp;pkeyword=&amp;sv=0&amp;pv46=9123&amp;sf=1&amp;FV=-8%7C53%2C16%7C317190%2Cmu50+Ohms%7C2085&amp;quantity=&amp;ColumnSort=0&amp;page=1&amp;stock=1&amp;nstock=1&amp;photo=1&amp;pageSize=100</t>
+  </si>
+  <si>
+    <t>4.7 nF cap (tant C13)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/vishay-bc-components/K472K15X7RF5TL2/BC1076CT-ND/286698</t>
+  </si>
+  <si>
+    <t>small signal diode (D1)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/on-semiconductor/1N4448TR/1N4448CT-ND/458915</t>
+  </si>
+  <si>
+    <t>USB Male A to Male B (3m)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/qualtek/3021013-10/Q367-ND/1531294</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/aries-electronics/LCQT-MSOP10/A881AR-ND/4754589</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/on-shore-technology-inc/SA103000/ED3069-5-ND/3935340</t>
+  </si>
+  <si>
+    <t>2x5pin dip socket</t>
   </si>
 </sst>
 </file>
@@ -178,7 +237,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +249,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -218,16 +285,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -540,22 +611,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF050AF-6490-407F-AEAC-095E1ED6FACA}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="C16" sqref="C16:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.28515625" customWidth="1"/>
-    <col min="5" max="5" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" customWidth="1"/>
+    <col min="5" max="5" width="38.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -572,187 +643,187 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3">
-        <v>16</v>
+        <v>2.9620000000000002</v>
       </c>
       <c r="C2" s="3">
         <f>A2*B2</f>
+        <v>14.81</v>
+      </c>
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3">
+        <f>A3*B3</f>
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>7.55</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" ref="C4:C31" si="0">A4*B4</f>
+        <v>7.55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>11.01</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>11.01</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>19.11</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>19.11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1.54</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>1.54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1.63</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>1.63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3">
+        <v>16.02</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>16.02</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
-        <v>7.55</v>
-      </c>
-      <c r="C3" s="3">
-        <f t="shared" ref="C3:C29" si="0">A3*B3</f>
-        <v>7.55</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3">
-        <v>11.01</v>
-      </c>
-      <c r="C4" s="3">
-        <f t="shared" si="0"/>
-        <v>11.01</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3">
-        <v>19.11</v>
-      </c>
-      <c r="C5" s="3">
-        <f t="shared" si="0"/>
-        <v>19.11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1.54</v>
-      </c>
-      <c r="C6" s="3">
-        <f t="shared" si="0"/>
-        <v>1.54</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1.63</v>
-      </c>
-      <c r="C7" s="3">
-        <f t="shared" si="0"/>
-        <v>1.63</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B10" s="3">
+        <v>1.53</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>7.65</v>
+      </c>
+      <c r="D10" t="s">
         <v>15</v>
       </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" s="3">
-        <v>16.02</v>
-      </c>
-      <c r="C8" s="3">
-        <f t="shared" si="0"/>
-        <v>16.02</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1.53</v>
-      </c>
-      <c r="C9" s="3">
-        <f t="shared" si="0"/>
-        <v>7.65</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E10" t="s">
         <v>18</v>
       </c>
-      <c r="E9" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3">
+        <v>3.95</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>3.95</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3">
-        <v>3.95</v>
-      </c>
-      <c r="C10" s="3">
-        <f t="shared" si="0"/>
-        <v>3.95</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>5</v>
-      </c>
-      <c r="B11" s="3">
-        <v>2.9620000000000002</v>
-      </c>
-      <c r="C11" s="3">
-        <f t="shared" si="0"/>
-        <v>14.81</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
       <c r="E11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -764,13 +835,13 @@
         <v>4.09</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -782,13 +853,13 @@
         <v>0.64</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -800,13 +871,13 @@
         <v>0.9</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -818,13 +889,13 @@
         <v>1.22</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -836,124 +907,311 @@
         <v>0.47</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" si="0"/>
+        <v>0.52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" si="0"/>
+        <v>1.8900000000000001</v>
+      </c>
+      <c r="D18" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>3</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E18" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>6</v>
       </c>
-      <c r="D18" t="s">
+      <c r="B19" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" si="0"/>
+        <v>3.7800000000000002</v>
+      </c>
+      <c r="D19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
+      <c r="B20" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
       <c r="D20" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
+      <c r="B21" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C21" s="3">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
       <c r="D21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
+      <c r="B22" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" si="0"/>
+        <v>0.86</v>
+      </c>
       <c r="D22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
+      <c r="B23" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C23" s="3">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
       <c r="D23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2</v>
       </c>
+      <c r="B24" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
       <c r="D24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" si="0"/>
+        <v>0.48</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" si="0"/>
+        <v>0.31</v>
+      </c>
+      <c r="D26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>2</v>
       </c>
-      <c r="D26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>1</v>
+      <c r="B27" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="C27" s="3">
+        <f t="shared" si="0"/>
+        <v>0.94</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="E27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
+      <c r="B28" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C28" s="3">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
       <c r="D28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1</v>
       </c>
+      <c r="B29" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C29" s="3">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
       <c r="D29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="3">
-        <f>SUM(C2:C29)</f>
-        <v>106.59000000000002</v>
+        <v>56</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C30" s="3">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" s="3">
+        <v>4.38</v>
+      </c>
+      <c r="C31" s="3">
+        <f t="shared" si="0"/>
+        <v>4.38</v>
+      </c>
+      <c r="D31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C35" s="3">
+        <f>SUM(C3:C31)</f>
+        <v>106.19000000000001</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1" xr:uid="{3013909E-4057-4666-B326-0DC00B89617F}"/>
+    <hyperlink ref="E8" r:id="rId2" xr:uid="{30E965E9-F711-460E-94A3-E2BB4B33EAA7}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{8D034B27-8455-4415-A9B6-9429586BA5A6}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{440F48AC-4B19-4D1B-9EE1-2FFD42EF03A5}"/>
+    <hyperlink ref="E20" r:id="rId5" xr:uid="{EDFE0936-DE82-4AFF-9DCF-D753ACA937AE}"/>
+    <hyperlink ref="E19" r:id="rId6" xr:uid="{DC87CEB2-40E5-421E-8770-FA1B27A237B7}"/>
+    <hyperlink ref="E21" r:id="rId7" xr:uid="{5821482A-0F21-4CD6-8832-895563B22D2C}"/>
+    <hyperlink ref="E22" r:id="rId8" xr:uid="{FB522A9A-A76C-410C-9231-CA246C9D78A2}"/>
+    <hyperlink ref="E23" r:id="rId9" xr:uid="{B45ED348-ADD2-4370-8DB6-4D4B16144880}"/>
+    <hyperlink ref="E24" r:id="rId10" xr:uid="{C70755B4-4691-47F6-B3F5-F9A5AA594738}"/>
+    <hyperlink ref="E25" r:id="rId11" xr:uid="{583E5E6C-83F0-41E4-B815-A2C69AD0909F}"/>
+    <hyperlink ref="E26" r:id="rId12" xr:uid="{B8C6A727-719C-4344-ABE9-475A35D6AA13}"/>
+    <hyperlink ref="E29" r:id="rId13" xr:uid="{15A8DEB4-770C-4DA9-A02E-B1EE25D4713F}"/>
+    <hyperlink ref="E15" r:id="rId14" xr:uid="{4037C433-862D-45D3-9B7F-9DA6E299DCB5}"/>
+    <hyperlink ref="E16" r:id="rId15" xr:uid="{9CC57818-C033-428B-913C-224B8DCE15D0}"/>
+    <hyperlink ref="E18" r:id="rId16" xr:uid="{39A66120-6177-4D68-885F-88D6BC6858BA}"/>
+    <hyperlink ref="E14" r:id="rId17" xr:uid="{96DDC7F2-3B1A-4093-9C5B-BDB24F3F16A1}"/>
+    <hyperlink ref="E31" r:id="rId18" xr:uid="{BFEC524F-01D9-4338-AF29-99A966FBE87D}"/>
+    <hyperlink ref="E12" r:id="rId19" xr:uid="{8FBC52AE-3FEB-43D0-A53E-50EC231613D9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId20"/>
 </worksheet>
 </file>